--- a/SquareMovements/SquareMovements.xlsx
+++ b/SquareMovements/SquareMovements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\SquareMovements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryf\Desktop\DroneProject\CopterTest\SquareMovements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB6F1F3-9F80-4C2D-A081-9743D74C9390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27388B4-82BD-4EFC-85A9-40C0AB4047D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Real End Position (x)</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>CRASH</t>
   </si>
+  <si>
+    <t>dasda</t>
+  </si>
 </sst>
 </file>
 
@@ -355,21 +358,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -379,13 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,6 +379,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +717,7 @@
   <dimension ref="B1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,294 +740,294 @@
   <sheetData>
     <row r="1" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="17" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="5" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="6" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>-31</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>-29</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>-30</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="11">
         <v>52</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="14">
         <v>-32</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>18</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <v>24</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="11">
         <v>25</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="11">
         <v>50</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="16">
         <v>29</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="7"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="25"/>
     </row>
     <row r="6" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>-45</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>-25</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>-24</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>-38</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="15">
         <v>-30</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="6">
         <v>30</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="6">
         <v>24</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="6">
         <v>27</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="17">
         <v>35</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>-47</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>-32</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>-21</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <v>-36</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="15">
         <v>-21</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>12</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="6">
         <v>12</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="6">
         <v>13</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="6">
         <v>15</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="17">
         <v>16</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="25"/>
     </row>
     <row r="8" spans="2:45" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>97</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>11</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>60</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>54</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="25"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -1035,26 +1038,26 @@
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="25"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -1070,26 +1073,26 @@
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
@@ -1104,26 +1107,26 @@
       <c r="AS10" s="1"/>
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -1139,26 +1142,26 @@
       <c r="AS11" s="1"/>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
@@ -1174,26 +1177,26 @@
       <c r="AS12" s="1"/>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -1209,26 +1212,26 @@
       <c r="AS13" s="1"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1244,156 +1247,158 @@
       <c r="AS14" s="1"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -1401,156 +1406,156 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -1558,182 +1563,182 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
@@ -1741,130 +1746,130 @@
       <c r="AJ33" s="1"/>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
@@ -1903,13 +1908,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -1922,6 +1920,13 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
